--- a/Documentation/SOFTDEV/FINALS/EVENT TABLE.xlsx
+++ b/Documentation/SOFTDEV/FINALS/EVENT TABLE.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Event table" sheetId="1" r:id="rId1"/>
     <sheet name="Event table v2" sheetId="2" r:id="rId2"/>
+    <sheet name="Event table v3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="66">
   <si>
     <t>EVENT</t>
   </si>
@@ -199,6 +200,28 @@
   </si>
   <si>
     <t>Updated dashboards</t>
+  </si>
+  <si>
+    <t>Monitoring System</t>
+  </si>
+  <si>
+    <t>Sends report</t>
+  </si>
+  <si>
+    <t>Law and Order Personnel</t>
+  </si>
+  <si>
+    <t>Sytem creates new report from Law and Order Personnel</t>
+  </si>
+  <si>
+    <t>Creates new report</t>
+  </si>
+  <si>
+    <t>Monitoring System
+User</t>
+  </si>
+  <si>
+    <t>System sends report to specified Agency User given by Law and Order</t>
   </si>
 </sst>
 </file>
@@ -249,12 +272,39 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="27">
+    <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -318,8 +368,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G7" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G7" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:G7"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="#" dataDxfId="24"/>
+    <tableColumn id="2" name="EVENT" dataDxfId="23"/>
+    <tableColumn id="3" name="TRIGGER" dataDxfId="22"/>
+    <tableColumn id="4" name="SOURCE" dataDxfId="21"/>
+    <tableColumn id="5" name="USE CASE" dataDxfId="20"/>
+    <tableColumn id="6" name="RESPONSE" dataDxfId="19"/>
+    <tableColumn id="7" name="DESTINATION" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:G6" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:G6"/>
   <tableColumns count="7">
     <tableColumn id="1" name="#" dataDxfId="15"/>
     <tableColumn id="2" name="EVENT" dataDxfId="14"/>
@@ -333,8 +399,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:G6" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A1:G6" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G6"/>
   <tableColumns count="7">
     <tableColumn id="1" name="#" dataDxfId="6"/>
@@ -342,8 +408,8 @@
     <tableColumn id="3" name="TRIGGER" dataDxfId="4"/>
     <tableColumn id="4" name="SOURCE" dataDxfId="3"/>
     <tableColumn id="5" name="USE CASE" dataDxfId="2"/>
-    <tableColumn id="6" name="RESPONSE" dataDxfId="0"/>
-    <tableColumn id="7" name="DESTINATION" dataDxfId="1"/>
+    <tableColumn id="6" name="RESPONSE" dataDxfId="1"/>
+    <tableColumn id="7" name="DESTINATION" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -955,4 +1021,194 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="26.75" customWidth="1"/>
+    <col min="3" max="7" width="24.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Documentation/SOFTDEV/FINALS/EVENT TABLE.xlsx
+++ b/Documentation/SOFTDEV/FINALS/EVENT TABLE.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
   <si>
     <t>EVENT</t>
   </si>
@@ -199,6 +199,18 @@
   </si>
   <si>
     <t>Updated dashboards</t>
+  </si>
+  <si>
+    <t>User views Dashboard</t>
+  </si>
+  <si>
+    <t>Data visualization</t>
+  </si>
+  <si>
+    <t>Visualized data</t>
+  </si>
+  <si>
+    <t>Views Dashboard</t>
   </si>
 </sst>
 </file>
@@ -234,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -245,16 +257,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
     <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -334,16 +349,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:G6" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:G7" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G7"/>
   <tableColumns count="7">
     <tableColumn id="1" name="#" dataDxfId="6"/>
     <tableColumn id="2" name="EVENT" dataDxfId="5"/>
     <tableColumn id="3" name="TRIGGER" dataDxfId="4"/>
     <tableColumn id="4" name="SOURCE" dataDxfId="3"/>
     <tableColumn id="5" name="USE CASE" dataDxfId="2"/>
-    <tableColumn id="6" name="RESPONSE" dataDxfId="0"/>
-    <tableColumn id="7" name="DESTINATION" dataDxfId="1"/>
+    <tableColumn id="6" name="RESPONSE" dataDxfId="1"/>
+    <tableColumn id="7" name="DESTINATION" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -796,7 +811,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
@@ -944,7 +959,29 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="8" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.35"/>
